--- a/data/pca/factorExposure/factorExposure_2016-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01154381884957471</v>
+        <v>-0.01550347490462947</v>
       </c>
       <c r="C2">
-        <v>0.05245586933532356</v>
+        <v>0.03835264854411324</v>
       </c>
       <c r="D2">
-        <v>0.04249308892288413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0645454024085489</v>
+      </c>
+      <c r="E2">
+        <v>-0.09433952049618141</v>
+      </c>
+      <c r="F2">
+        <v>-0.08433923634660295</v>
+      </c>
+      <c r="G2">
+        <v>-0.02647013601558751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04070435439518708</v>
+        <v>-0.02500323091131809</v>
       </c>
       <c r="C3">
-        <v>0.1218172746094375</v>
+        <v>0.06702800004980726</v>
       </c>
       <c r="D3">
-        <v>0.08458766509514407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07354251903469383</v>
+      </c>
+      <c r="E3">
+        <v>-0.06847343240135918</v>
+      </c>
+      <c r="F3">
+        <v>0.02051498343077035</v>
+      </c>
+      <c r="G3">
+        <v>-0.04565422474522465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06373608661938873</v>
+        <v>-0.06055281365302752</v>
       </c>
       <c r="C4">
-        <v>0.06177282722808132</v>
+        <v>0.06391438292611698</v>
       </c>
       <c r="D4">
-        <v>0.03004829498768358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05743493056196461</v>
+      </c>
+      <c r="E4">
+        <v>-0.0888968517548864</v>
+      </c>
+      <c r="F4">
+        <v>-0.04805401423951992</v>
+      </c>
+      <c r="G4">
+        <v>-0.0874938247078399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04093754762025963</v>
+        <v>-0.03698304541570131</v>
       </c>
       <c r="C6">
-        <v>0.0348405713586071</v>
+        <v>0.02608553633057052</v>
       </c>
       <c r="D6">
-        <v>0.03022421946694601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06294405766692653</v>
+      </c>
+      <c r="E6">
+        <v>-0.08908235123782222</v>
+      </c>
+      <c r="F6">
+        <v>-0.02904750447688789</v>
+      </c>
+      <c r="G6">
+        <v>-0.06512008698492025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02698581675324393</v>
+        <v>-0.02117864713963567</v>
       </c>
       <c r="C7">
-        <v>0.03991128705888736</v>
+        <v>0.03537461277902917</v>
       </c>
       <c r="D7">
-        <v>-0.005818529453784802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03981628899684204</v>
+      </c>
+      <c r="E7">
+        <v>-0.06815625725121699</v>
+      </c>
+      <c r="F7">
+        <v>-0.0705681145922548</v>
+      </c>
+      <c r="G7">
+        <v>-0.09851512835583612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007488422647650039</v>
+        <v>-0.005568240329070371</v>
       </c>
       <c r="C8">
-        <v>0.04163193422943885</v>
+        <v>0.03458135930053498</v>
       </c>
       <c r="D8">
-        <v>0.02638997346849798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03583782298274479</v>
+      </c>
+      <c r="E8">
+        <v>-0.06250996534787474</v>
+      </c>
+      <c r="F8">
+        <v>-0.02102836261540826</v>
+      </c>
+      <c r="G8">
+        <v>-0.03680195474476476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03797382744756954</v>
+        <v>-0.04006271339773603</v>
       </c>
       <c r="C9">
-        <v>0.04824417973319695</v>
+        <v>0.05097998926519326</v>
       </c>
       <c r="D9">
-        <v>0.01417259628125531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0419895335286587</v>
+      </c>
+      <c r="E9">
+        <v>-0.07106384362727394</v>
+      </c>
+      <c r="F9">
+        <v>-0.06055930527386408</v>
+      </c>
+      <c r="G9">
+        <v>-0.07949581127463574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07251056920185585</v>
+        <v>-0.09868437507325345</v>
       </c>
       <c r="C10">
-        <v>-0.1907179583821397</v>
+        <v>-0.2011286823476597</v>
       </c>
       <c r="D10">
-        <v>-0.004504886716654543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01121309020344963</v>
+      </c>
+      <c r="E10">
+        <v>-0.03227424048737794</v>
+      </c>
+      <c r="F10">
+        <v>-0.01898679641012993</v>
+      </c>
+      <c r="G10">
+        <v>-0.03582448953808266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04284587699986125</v>
+        <v>-0.03779932971463376</v>
       </c>
       <c r="C11">
-        <v>0.05077778798877628</v>
+        <v>0.04744924947462968</v>
       </c>
       <c r="D11">
-        <v>0.01384158027236881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03238975417995772</v>
+      </c>
+      <c r="E11">
+        <v>-0.02846190960618394</v>
+      </c>
+      <c r="F11">
+        <v>-0.042274414058547</v>
+      </c>
+      <c r="G11">
+        <v>-0.06685135077330215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04552831863313921</v>
+        <v>-0.03983738379081562</v>
       </c>
       <c r="C12">
-        <v>0.04625659735838068</v>
+        <v>0.04555989359207108</v>
       </c>
       <c r="D12">
-        <v>0.002849258010125591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02781509496983581</v>
+      </c>
+      <c r="E12">
+        <v>-0.03541011371503298</v>
+      </c>
+      <c r="F12">
+        <v>-0.04380638529813333</v>
+      </c>
+      <c r="G12">
+        <v>-0.06484529216662484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01628330593620535</v>
+        <v>-0.01388664373773062</v>
       </c>
       <c r="C13">
-        <v>0.05380491515322068</v>
+        <v>0.04229831937916575</v>
       </c>
       <c r="D13">
-        <v>0.01056603343666959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04884373439012202</v>
+      </c>
+      <c r="E13">
+        <v>-0.1010230353369291</v>
+      </c>
+      <c r="F13">
+        <v>-0.06352287815561629</v>
+      </c>
+      <c r="G13">
+        <v>-0.09270927607266957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01034356081610181</v>
+        <v>-0.006766202189378983</v>
       </c>
       <c r="C14">
-        <v>0.03780890335246394</v>
+        <v>0.03078506579773529</v>
       </c>
       <c r="D14">
-        <v>-0.007464362773542734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02687933642054114</v>
+      </c>
+      <c r="E14">
+        <v>-0.05125695523794496</v>
+      </c>
+      <c r="F14">
+        <v>-0.08125681607273921</v>
+      </c>
+      <c r="G14">
+        <v>-0.08137327067293826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-8.363741729496483e-06</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005312752982033613</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00860864453567888</v>
+      </c>
+      <c r="E15">
+        <v>-0.00476158162818933</v>
+      </c>
+      <c r="F15">
+        <v>-0.006662626559134057</v>
+      </c>
+      <c r="G15">
+        <v>-0.007461441462979189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0407089295724666</v>
+        <v>-0.03585027245234912</v>
       </c>
       <c r="C16">
-        <v>0.04780988307304462</v>
+        <v>0.04423655117231598</v>
       </c>
       <c r="D16">
-        <v>0.005747088074549963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.027124754833951</v>
+      </c>
+      <c r="E16">
+        <v>-0.04156515529533896</v>
+      </c>
+      <c r="F16">
+        <v>-0.05394744104712774</v>
+      </c>
+      <c r="G16">
+        <v>-0.05482069805535721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02806061762164618</v>
+        <v>-0.01886769741276777</v>
       </c>
       <c r="C19">
-        <v>0.05854942313845572</v>
+        <v>0.04381809777949079</v>
       </c>
       <c r="D19">
-        <v>0.09188674028849114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09369234498158746</v>
+      </c>
+      <c r="E19">
+        <v>-0.1117029196294827</v>
+      </c>
+      <c r="F19">
+        <v>-0.06233037699166021</v>
+      </c>
+      <c r="G19">
+        <v>-0.03883523827403476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01928798405905784</v>
+        <v>-0.01538249618560623</v>
       </c>
       <c r="C20">
-        <v>0.04867622882031534</v>
+        <v>0.03952217622815702</v>
       </c>
       <c r="D20">
-        <v>0.01031158498768908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03607421626164491</v>
+      </c>
+      <c r="E20">
+        <v>-0.07975191308541707</v>
+      </c>
+      <c r="F20">
+        <v>-0.05730681658449159</v>
+      </c>
+      <c r="G20">
+        <v>-0.06483942923072623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01301564732168722</v>
+        <v>-0.01114643235737453</v>
       </c>
       <c r="C21">
-        <v>0.05388317548373532</v>
+        <v>0.04388659358776183</v>
       </c>
       <c r="D21">
-        <v>0.03059300739199118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05964519925374297</v>
+      </c>
+      <c r="E21">
+        <v>-0.1277068257798405</v>
+      </c>
+      <c r="F21">
+        <v>-0.09272331937364134</v>
+      </c>
+      <c r="G21">
+        <v>-0.09254906932361774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001833535876978687</v>
+        <v>-0.003898061266001266</v>
       </c>
       <c r="C22">
-        <v>0.001603575700804124</v>
+        <v>0.02880725511100598</v>
       </c>
       <c r="D22">
-        <v>0.006186742697746916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05015782219070585</v>
+      </c>
+      <c r="E22">
+        <v>-0.05579451726738709</v>
+      </c>
+      <c r="F22">
+        <v>0.01908268387130088</v>
+      </c>
+      <c r="G22">
+        <v>-0.06250288075644203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001839448856969892</v>
+        <v>-0.00398306248867023</v>
       </c>
       <c r="C23">
-        <v>0.001622890529422438</v>
+        <v>0.02894975889026103</v>
       </c>
       <c r="D23">
-        <v>0.006175748650343492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0497081389845048</v>
+      </c>
+      <c r="E23">
+        <v>-0.05605813476686921</v>
+      </c>
+      <c r="F23">
+        <v>0.0193823568669285</v>
+      </c>
+      <c r="G23">
+        <v>-0.06247792620168668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03736120128501159</v>
+        <v>-0.03627168986645862</v>
       </c>
       <c r="C24">
-        <v>0.05017585055525117</v>
+        <v>0.05237823930236941</v>
       </c>
       <c r="D24">
-        <v>0.007630705344316394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02614185452217942</v>
+      </c>
+      <c r="E24">
+        <v>-0.04279287597494371</v>
+      </c>
+      <c r="F24">
+        <v>-0.05664280829213348</v>
+      </c>
+      <c r="G24">
+        <v>-0.06710464832086592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04921559119942805</v>
+        <v>-0.04414126349095474</v>
       </c>
       <c r="C25">
-        <v>0.06057563615446891</v>
+        <v>0.05599671387822947</v>
       </c>
       <c r="D25">
-        <v>-0.003319787832444072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02413568162500393</v>
+      </c>
+      <c r="E25">
+        <v>-0.03604720475954301</v>
+      </c>
+      <c r="F25">
+        <v>-0.04638736311565438</v>
+      </c>
+      <c r="G25">
+        <v>-0.0778035242527212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01821879468112348</v>
+        <v>-0.01682976176022422</v>
       </c>
       <c r="C26">
-        <v>0.01811810591633869</v>
+        <v>0.01703636812746536</v>
       </c>
       <c r="D26">
-        <v>0.002869389669076184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02707060382710818</v>
+      </c>
+      <c r="E26">
+        <v>-0.05194796825826171</v>
+      </c>
+      <c r="F26">
+        <v>-0.06076760894592661</v>
+      </c>
+      <c r="G26">
+        <v>-0.04761157074582394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08726444911613616</v>
+        <v>-0.1348321528142752</v>
       </c>
       <c r="C28">
-        <v>-0.2499117623980551</v>
+        <v>-0.2557834054720874</v>
       </c>
       <c r="D28">
-        <v>-0.003128357674623985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02526676822056685</v>
+      </c>
+      <c r="E28">
+        <v>-0.05870636642436707</v>
+      </c>
+      <c r="F28">
+        <v>-0.0360645159947599</v>
+      </c>
+      <c r="G28">
+        <v>-0.05310668063812702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008068669238934807</v>
+        <v>-0.006778893392954568</v>
       </c>
       <c r="C29">
-        <v>0.03330427746451596</v>
+        <v>0.02879171915132954</v>
       </c>
       <c r="D29">
-        <v>-0.01365858320306599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01859741431260527</v>
+      </c>
+      <c r="E29">
+        <v>-0.0511850450553436</v>
+      </c>
+      <c r="F29">
+        <v>-0.07283615690832838</v>
+      </c>
+      <c r="G29">
+        <v>-0.08469955427274239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04732088215855074</v>
+        <v>-0.04399578080403885</v>
       </c>
       <c r="C30">
-        <v>0.05252900238643195</v>
+        <v>0.05675066634827863</v>
       </c>
       <c r="D30">
-        <v>0.0795698252499235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1046169123305341</v>
+      </c>
+      <c r="E30">
+        <v>-0.07836120659007896</v>
+      </c>
+      <c r="F30">
+        <v>-0.06811936526988462</v>
+      </c>
+      <c r="G30">
+        <v>-0.06496040463747647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06077529860039432</v>
+        <v>-0.05882096972655569</v>
       </c>
       <c r="C31">
-        <v>0.04531960911248184</v>
+        <v>0.06136019168393256</v>
       </c>
       <c r="D31">
-        <v>-0.04347086995036398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.017257618488327</v>
+      </c>
+      <c r="E31">
+        <v>-0.07179542792591122</v>
+      </c>
+      <c r="F31">
+        <v>-0.02745974269671086</v>
+      </c>
+      <c r="G31">
+        <v>-0.08138480337900181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001223745054449833</v>
+        <v>-0.005931460351613973</v>
       </c>
       <c r="C32">
-        <v>0.04267373762705499</v>
+        <v>0.03539828528042251</v>
       </c>
       <c r="D32">
-        <v>0.05788089737654379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05832542701764402</v>
+      </c>
+      <c r="E32">
+        <v>-0.06165255637555438</v>
+      </c>
+      <c r="F32">
+        <v>-0.0675120483046911</v>
+      </c>
+      <c r="G32">
+        <v>-0.06612546646158068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03492223063917195</v>
+        <v>-0.02867758064925981</v>
       </c>
       <c r="C33">
-        <v>0.05571911638782467</v>
+        <v>0.05117009421397797</v>
       </c>
       <c r="D33">
-        <v>0.03992275868201694</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07333763090223128</v>
+      </c>
+      <c r="E33">
+        <v>-0.09001460669738069</v>
+      </c>
+      <c r="F33">
+        <v>-0.07060317637958054</v>
+      </c>
+      <c r="G33">
+        <v>-0.09627452131510293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04616247941998646</v>
+        <v>-0.0415135401764996</v>
       </c>
       <c r="C34">
-        <v>0.06471497103091957</v>
+        <v>0.06272303866713798</v>
       </c>
       <c r="D34">
-        <v>0.01976070345216955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03876934698117063</v>
+      </c>
+      <c r="E34">
+        <v>-0.01775608803424525</v>
+      </c>
+      <c r="F34">
+        <v>-0.05594146839619247</v>
+      </c>
+      <c r="G34">
+        <v>-0.06889315358786897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01789655493986578</v>
+        <v>-0.01501432505452083</v>
       </c>
       <c r="C36">
-        <v>0.01687198711637875</v>
+        <v>0.01378906281262701</v>
       </c>
       <c r="D36">
-        <v>-0.002839418712607621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02564884991989041</v>
+      </c>
+      <c r="E36">
+        <v>-0.06167383829885471</v>
+      </c>
+      <c r="F36">
+        <v>-0.05227437328118537</v>
+      </c>
+      <c r="G36">
+        <v>-0.06450675456342454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03097627504312709</v>
+        <v>-0.02418381845349715</v>
       </c>
       <c r="C38">
-        <v>0.03225001834332379</v>
+        <v>0.02424969853633058</v>
       </c>
       <c r="D38">
-        <v>-0.01285518702687858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0229826530946577</v>
+      </c>
+      <c r="E38">
+        <v>-0.05033181625061021</v>
+      </c>
+      <c r="F38">
+        <v>-0.04153154780884544</v>
+      </c>
+      <c r="G38">
+        <v>-0.04494651266301118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04832000704945618</v>
+        <v>-0.04212820290301117</v>
       </c>
       <c r="C39">
-        <v>0.06163738002279958</v>
+        <v>0.06235048557362213</v>
       </c>
       <c r="D39">
-        <v>0.02086049329812842</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05266095899984174</v>
+      </c>
+      <c r="E39">
+        <v>-0.04902458754851714</v>
+      </c>
+      <c r="F39">
+        <v>-0.07541605583753708</v>
+      </c>
+      <c r="G39">
+        <v>-0.06067112463695182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01118128196303884</v>
+        <v>-0.01393398858889844</v>
       </c>
       <c r="C40">
-        <v>0.05498198147375922</v>
+        <v>0.03921910846596178</v>
       </c>
       <c r="D40">
-        <v>0.01727792011383921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03309289830054449</v>
+      </c>
+      <c r="E40">
+        <v>-0.09147057706893678</v>
+      </c>
+      <c r="F40">
+        <v>-0.03925851397902282</v>
+      </c>
+      <c r="G40">
+        <v>-0.09986631587847931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02325754121340211</v>
+        <v>-0.01959062585847382</v>
       </c>
       <c r="C41">
-        <v>0.01324296279124111</v>
+        <v>0.009458907530192382</v>
       </c>
       <c r="D41">
-        <v>0.00183737047687239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01734666517139956</v>
+      </c>
+      <c r="E41">
+        <v>-0.06306285125335651</v>
+      </c>
+      <c r="F41">
+        <v>-0.0470165779836527</v>
+      </c>
+      <c r="G41">
+        <v>-0.05177168651152474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04415556586034634</v>
+        <v>-0.03135132545836022</v>
       </c>
       <c r="C43">
-        <v>0.03358571613295527</v>
+        <v>0.02481213405077758</v>
       </c>
       <c r="D43">
-        <v>0.02166794758804381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04527262789652722</v>
+      </c>
+      <c r="E43">
+        <v>-0.07799434790612067</v>
+      </c>
+      <c r="F43">
+        <v>-0.04178862874163729</v>
+      </c>
+      <c r="G43">
+        <v>-0.0784873718764779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01593729489739518</v>
+        <v>-0.01755054817387552</v>
       </c>
       <c r="C44">
-        <v>0.06973077520031808</v>
+        <v>0.04751859484530582</v>
       </c>
       <c r="D44">
-        <v>0.009251146133056011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03525292678991924</v>
+      </c>
+      <c r="E44">
+        <v>-0.08977437386028635</v>
+      </c>
+      <c r="F44">
+        <v>-0.06541305671240867</v>
+      </c>
+      <c r="G44">
+        <v>-0.04891288863742561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0120728431947827</v>
+        <v>-0.01240078051594002</v>
       </c>
       <c r="C46">
-        <v>0.02646218040159908</v>
+        <v>0.02832679970344669</v>
       </c>
       <c r="D46">
-        <v>-0.01421929460313174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0148665180172853</v>
+      </c>
+      <c r="E46">
+        <v>-0.06080042523287724</v>
+      </c>
+      <c r="F46">
+        <v>-0.08227433845346938</v>
+      </c>
+      <c r="G46">
+        <v>-0.08390212046023941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09029170644974101</v>
+        <v>-0.09261565388408352</v>
       </c>
       <c r="C47">
-        <v>0.06768076741042459</v>
+        <v>0.07925021484036594</v>
       </c>
       <c r="D47">
-        <v>-0.04291997330687416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02278554506348308</v>
+      </c>
+      <c r="E47">
+        <v>-0.06704368022631371</v>
+      </c>
+      <c r="F47">
+        <v>-0.02733778280168844</v>
+      </c>
+      <c r="G47">
+        <v>-0.07699368435671407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0198988978481035</v>
+        <v>-0.01809250859330859</v>
       </c>
       <c r="C48">
-        <v>0.01396614088775255</v>
+        <v>0.01585988562001128</v>
       </c>
       <c r="D48">
-        <v>-0.01668030013615493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01244393600148054</v>
+      </c>
+      <c r="E48">
+        <v>-0.07303475620050549</v>
+      </c>
+      <c r="F48">
+        <v>-0.06605876135315635</v>
+      </c>
+      <c r="G48">
+        <v>-0.07082267846019301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08482372552226973</v>
+        <v>-0.07235431829415523</v>
       </c>
       <c r="C50">
-        <v>0.08129396383242143</v>
+        <v>0.07469918602388495</v>
       </c>
       <c r="D50">
-        <v>-0.04359109789067708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00805477326100777</v>
+      </c>
+      <c r="E50">
+        <v>-0.07805108620200855</v>
+      </c>
+      <c r="F50">
+        <v>-0.0007556455312942079</v>
+      </c>
+      <c r="G50">
+        <v>-0.09139334926232842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0180438516043278</v>
+        <v>-0.01148705100942184</v>
       </c>
       <c r="C51">
-        <v>0.05095536023209833</v>
+        <v>0.0323977871571728</v>
       </c>
       <c r="D51">
-        <v>0.04110976043882079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05795964565561341</v>
+      </c>
+      <c r="E51">
+        <v>-0.05166870078167386</v>
+      </c>
+      <c r="F51">
+        <v>-0.07097217501375408</v>
+      </c>
+      <c r="G51">
+        <v>-0.05861903145873436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08461552353855811</v>
+        <v>-0.09781072360523987</v>
       </c>
       <c r="C53">
-        <v>0.07789947976580942</v>
+        <v>0.08561580941347875</v>
       </c>
       <c r="D53">
-        <v>-0.0660999232017585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06132778186028261</v>
+      </c>
+      <c r="E53">
+        <v>-0.06741541278777062</v>
+      </c>
+      <c r="F53">
+        <v>-0.02637127419980679</v>
+      </c>
+      <c r="G53">
+        <v>-0.06765958588094913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03783852939791573</v>
+        <v>-0.03071051973525245</v>
       </c>
       <c r="C54">
-        <v>0.03319321016571251</v>
+        <v>0.03062543364624589</v>
       </c>
       <c r="D54">
-        <v>-0.004289660404221928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02631538616748098</v>
+      </c>
+      <c r="E54">
+        <v>-0.05705606031061221</v>
+      </c>
+      <c r="F54">
+        <v>-0.07205254808914406</v>
+      </c>
+      <c r="G54">
+        <v>-0.08653853333840203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07991634901351745</v>
+        <v>-0.09005784657631381</v>
       </c>
       <c r="C55">
-        <v>0.05346190300238225</v>
+        <v>0.06749840034946042</v>
       </c>
       <c r="D55">
-        <v>-0.07125335542910088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06171224777456281</v>
+      </c>
+      <c r="E55">
+        <v>-0.04493208451569079</v>
+      </c>
+      <c r="F55">
+        <v>-0.00560840904966699</v>
+      </c>
+      <c r="G55">
+        <v>-0.05269098150810655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.154264507192389</v>
+        <v>-0.156099737329785</v>
       </c>
       <c r="C56">
-        <v>0.08285260218224191</v>
+        <v>0.1007335874434857</v>
       </c>
       <c r="D56">
-        <v>-0.0609867416426593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05517533574409181</v>
+      </c>
+      <c r="E56">
+        <v>-0.03918332777369322</v>
+      </c>
+      <c r="F56">
+        <v>0.01580460492351662</v>
+      </c>
+      <c r="G56">
+        <v>-0.02195206187012319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05049911903755375</v>
+        <v>-0.03075133670466742</v>
       </c>
       <c r="C58">
-        <v>0.01789928769976787</v>
+        <v>0.02057420901878067</v>
       </c>
       <c r="D58">
-        <v>0.5830628764458835</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3843036366491344</v>
+      </c>
+      <c r="E58">
+        <v>-0.6158489193490012</v>
+      </c>
+      <c r="F58">
+        <v>0.428662710102321</v>
+      </c>
+      <c r="G58">
+        <v>0.4547632029161762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.123452461634845</v>
+        <v>-0.1391009979356677</v>
       </c>
       <c r="C59">
-        <v>-0.2026718387092297</v>
+        <v>-0.191443938371073</v>
       </c>
       <c r="D59">
-        <v>0.02906979524257513</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03119656696158871</v>
+      </c>
+      <c r="E59">
+        <v>-0.03164769625937001</v>
+      </c>
+      <c r="F59">
+        <v>-0.0302222576417059</v>
+      </c>
+      <c r="G59">
+        <v>0.007357709479873186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.304045129979948</v>
+        <v>-0.2738678997687701</v>
       </c>
       <c r="C60">
-        <v>0.1096868945981723</v>
+        <v>0.1059464499571092</v>
       </c>
       <c r="D60">
-        <v>0.1776968866172255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2483043547164273</v>
+      </c>
+      <c r="E60">
+        <v>0.2432203272661704</v>
+      </c>
+      <c r="F60">
+        <v>0.0906659023511754</v>
+      </c>
+      <c r="G60">
+        <v>-0.04348751969613508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0474362689284728</v>
+        <v>-0.04367968062574504</v>
       </c>
       <c r="C61">
-        <v>0.06030801232329045</v>
+        <v>0.05786391743768882</v>
       </c>
       <c r="D61">
-        <v>0.01477910885072838</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04357220660723302</v>
+      </c>
+      <c r="E61">
+        <v>-0.05083986623413603</v>
+      </c>
+      <c r="F61">
+        <v>-0.058914673574327</v>
+      </c>
+      <c r="G61">
+        <v>-0.07533372834919559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01952304330030509</v>
+        <v>-0.01751365440899571</v>
       </c>
       <c r="C63">
-        <v>0.03319680343721142</v>
+        <v>0.03047329922129367</v>
       </c>
       <c r="D63">
-        <v>-0.02297400646240561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01666987556850213</v>
+      </c>
+      <c r="E63">
+        <v>-0.06385826567853044</v>
+      </c>
+      <c r="F63">
+        <v>-0.03848275571675457</v>
+      </c>
+      <c r="G63">
+        <v>-0.07553847504026934</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05114034775631553</v>
+        <v>-0.05728020923949534</v>
       </c>
       <c r="C64">
-        <v>0.04681667976491889</v>
+        <v>0.05797007403998358</v>
       </c>
       <c r="D64">
-        <v>0.01516405678550542</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009252755195240004</v>
+      </c>
+      <c r="E64">
+        <v>-0.04506373174363125</v>
+      </c>
+      <c r="F64">
+        <v>-0.055657148924758</v>
+      </c>
+      <c r="G64">
+        <v>-0.05219518507423913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07945983589695009</v>
+        <v>-0.06418121157046054</v>
       </c>
       <c r="C65">
-        <v>0.02511963022678508</v>
+        <v>0.0254863131342121</v>
       </c>
       <c r="D65">
-        <v>0.06011774031267501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0880599423099955</v>
+      </c>
+      <c r="E65">
+        <v>-0.05721933490632711</v>
+      </c>
+      <c r="F65">
+        <v>-0.006983374828758561</v>
+      </c>
+      <c r="G65">
+        <v>-0.02223678675445826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06368579581893057</v>
+        <v>-0.05446684532649916</v>
       </c>
       <c r="C66">
-        <v>0.08526317679313077</v>
+        <v>0.08018183979350828</v>
       </c>
       <c r="D66">
-        <v>0.04053299196756794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07734855277795812</v>
+      </c>
+      <c r="E66">
+        <v>-0.06052352768714719</v>
+      </c>
+      <c r="F66">
+        <v>-0.06651867047664228</v>
+      </c>
+      <c r="G66">
+        <v>-0.07420991502385273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05214988846706815</v>
+        <v>-0.04519802263829142</v>
       </c>
       <c r="C67">
-        <v>0.03140374973589403</v>
+        <v>0.02850868904295204</v>
       </c>
       <c r="D67">
-        <v>-0.02201385608827401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005280816730016233</v>
+      </c>
+      <c r="E67">
+        <v>-0.02668090389241925</v>
+      </c>
+      <c r="F67">
+        <v>-0.02775496704072591</v>
+      </c>
+      <c r="G67">
+        <v>-0.03601803997001229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1221288507469677</v>
+        <v>-0.1463948000121259</v>
       </c>
       <c r="C68">
-        <v>-0.2810300489735683</v>
+        <v>-0.24482308063766</v>
       </c>
       <c r="D68">
-        <v>-0.007177858066295729</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0143250486759542</v>
+      </c>
+      <c r="E68">
+        <v>-0.04164573653664524</v>
+      </c>
+      <c r="F68">
+        <v>-0.01068741206715293</v>
+      </c>
+      <c r="G68">
+        <v>-0.02933525211041239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09371632966933523</v>
+        <v>-0.08861273111428784</v>
       </c>
       <c r="C69">
-        <v>0.0713042841392936</v>
+        <v>0.09003986729595238</v>
       </c>
       <c r="D69">
-        <v>-0.05208318333155756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01480324547920702</v>
+      </c>
+      <c r="E69">
+        <v>-0.05787686216473539</v>
+      </c>
+      <c r="F69">
+        <v>-0.05604552335363255</v>
+      </c>
+      <c r="G69">
+        <v>-0.07373320083148141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1134257768162342</v>
+        <v>-0.1407403211402165</v>
       </c>
       <c r="C71">
-        <v>-0.2586272505323177</v>
+        <v>-0.2437940830583031</v>
       </c>
       <c r="D71">
-        <v>0.01185154767392009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002932443966437308</v>
+      </c>
+      <c r="E71">
+        <v>-0.05599822435212716</v>
+      </c>
+      <c r="F71">
+        <v>-0.01184217364757444</v>
+      </c>
+      <c r="G71">
+        <v>-0.06519512007994403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09778677701517972</v>
+        <v>-0.1040667871076318</v>
       </c>
       <c r="C72">
-        <v>0.04187068986234829</v>
+        <v>0.04980892581647899</v>
       </c>
       <c r="D72">
-        <v>0.007142749552890956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03663747318088498</v>
+      </c>
+      <c r="E72">
+        <v>-0.02049897331329729</v>
+      </c>
+      <c r="F72">
+        <v>-0.03247760225875578</v>
+      </c>
+      <c r="G72">
+        <v>-0.09264469730504908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.391547725622036</v>
+        <v>-0.330983369309406</v>
       </c>
       <c r="C73">
-        <v>0.04968311690361735</v>
+        <v>0.07023651529648206</v>
       </c>
       <c r="D73">
-        <v>0.4457478207168551</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5025760866617097</v>
+      </c>
+      <c r="E73">
+        <v>0.4611408248065574</v>
+      </c>
+      <c r="F73">
+        <v>0.2471391921334646</v>
+      </c>
+      <c r="G73">
+        <v>-0.02401347875187498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1089685531179195</v>
+        <v>-0.113057181894775</v>
       </c>
       <c r="C74">
-        <v>0.09204169704155761</v>
+        <v>0.09181957630362096</v>
       </c>
       <c r="D74">
-        <v>-0.04695408333645873</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04675711290134585</v>
+      </c>
+      <c r="E74">
+        <v>-0.0580455858128367</v>
+      </c>
+      <c r="F74">
+        <v>0.006411316011668941</v>
+      </c>
+      <c r="G74">
+        <v>-0.04597073108789127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2576210890979002</v>
+        <v>-0.2612871902068886</v>
       </c>
       <c r="C75">
-        <v>0.08964717788669545</v>
+        <v>0.1218630798091462</v>
       </c>
       <c r="D75">
-        <v>-0.1415927085598563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1528295845973585</v>
+      </c>
+      <c r="E75">
+        <v>-0.03176982479603206</v>
+      </c>
+      <c r="F75">
+        <v>0.05856874461828242</v>
+      </c>
+      <c r="G75">
+        <v>0.05237361261106542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1169313437898126</v>
+        <v>-0.1303254692647459</v>
       </c>
       <c r="C76">
-        <v>0.07985496797766239</v>
+        <v>0.0911032813150347</v>
       </c>
       <c r="D76">
-        <v>-0.07673547726526708</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0815245760497196</v>
+      </c>
+      <c r="E76">
+        <v>-0.07376837236673693</v>
+      </c>
+      <c r="F76">
+        <v>-0.01410402061557488</v>
+      </c>
+      <c r="G76">
+        <v>-0.03475598019727882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08320887753995762</v>
+        <v>-0.06796240017677214</v>
       </c>
       <c r="C77">
-        <v>0.04406681720724129</v>
+        <v>0.05798778353500215</v>
       </c>
       <c r="D77">
-        <v>0.05481619400555509</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06122528063340995</v>
+      </c>
+      <c r="E77">
+        <v>-0.09567608610114213</v>
+      </c>
+      <c r="F77">
+        <v>-0.1756687120842208</v>
+      </c>
+      <c r="G77">
+        <v>0.1004008390152652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04958682329451597</v>
+        <v>-0.04761256184023582</v>
       </c>
       <c r="C78">
-        <v>0.04109251297122998</v>
+        <v>0.05267157091621427</v>
       </c>
       <c r="D78">
-        <v>0.03200772601638768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0654776960316079</v>
+      </c>
+      <c r="E78">
+        <v>-0.06157418589884444</v>
+      </c>
+      <c r="F78">
+        <v>-0.06177147722473215</v>
+      </c>
+      <c r="G78">
+        <v>-0.06289958639953976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-6.214421109671917e-06</v>
+        <v>-0.0331136128632145</v>
       </c>
       <c r="C79">
-        <v>0.0008046918545221905</v>
+        <v>0.0474024867777581</v>
       </c>
       <c r="D79">
-        <v>0.001324368030829317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08272065773831802</v>
+      </c>
+      <c r="E79">
+        <v>-0.06745657872193478</v>
+      </c>
+      <c r="F79">
+        <v>0.01955601932260751</v>
+      </c>
+      <c r="G79">
+        <v>-0.02962692087864512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03923450971822268</v>
+        <v>-0.03016925564028826</v>
       </c>
       <c r="C80">
-        <v>0.04969332644501202</v>
+        <v>0.05018249683374425</v>
       </c>
       <c r="D80">
-        <v>0.03011055867028346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04040600398792551</v>
+      </c>
+      <c r="E80">
+        <v>-0.01536252338980701</v>
+      </c>
+      <c r="F80">
+        <v>-0.05617075134799757</v>
+      </c>
+      <c r="G80">
+        <v>-0.001042582983309969</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1433159489421335</v>
+        <v>-0.142723075703455</v>
       </c>
       <c r="C81">
-        <v>0.0728954588939538</v>
+        <v>0.09188273315144342</v>
       </c>
       <c r="D81">
-        <v>-0.1106721641341417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1255844137625267</v>
+      </c>
+      <c r="E81">
+        <v>-0.07205602551144724</v>
+      </c>
+      <c r="F81">
+        <v>0.02706264391013482</v>
+      </c>
+      <c r="G81">
+        <v>0.01269943761886771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1924903531482826</v>
+        <v>-0.2268402803019952</v>
       </c>
       <c r="C82">
-        <v>0.08618033586092441</v>
+        <v>0.1498388706425208</v>
       </c>
       <c r="D82">
-        <v>-0.1960686451777195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2502143859733051</v>
+      </c>
+      <c r="E82">
+        <v>0.03476887536272216</v>
+      </c>
+      <c r="F82">
+        <v>-0.0451711172613917</v>
+      </c>
+      <c r="G82">
+        <v>-0.05306850750816523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04195291430033456</v>
+        <v>-0.02797633028642783</v>
       </c>
       <c r="C83">
-        <v>0.03088097229189079</v>
+        <v>0.04444165420754734</v>
       </c>
       <c r="D83">
-        <v>0.03810861021928649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03273724872827384</v>
+      </c>
+      <c r="E83">
+        <v>-0.02451115957941541</v>
+      </c>
+      <c r="F83">
+        <v>-0.03222825830242536</v>
+      </c>
+      <c r="G83">
+        <v>-0.003395070217113666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002462979421872507</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004109438478914521</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0002858983607245035</v>
+      </c>
+      <c r="E84">
+        <v>-0.002859835175076578</v>
+      </c>
+      <c r="F84">
+        <v>0.001540269859541981</v>
+      </c>
+      <c r="G84">
+        <v>-0.001187745473661499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2204502245225054</v>
+        <v>-0.2039651763947954</v>
       </c>
       <c r="C85">
-        <v>0.09126765583106558</v>
+        <v>0.1096242699076663</v>
       </c>
       <c r="D85">
-        <v>-0.1674550822267944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1317524747113355</v>
+      </c>
+      <c r="E85">
+        <v>0.005598847266398397</v>
+      </c>
+      <c r="F85">
+        <v>0.1048621711583565</v>
+      </c>
+      <c r="G85">
+        <v>-0.0005669951249871006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0100628399803204</v>
+        <v>-0.01291227703367904</v>
       </c>
       <c r="C86">
-        <v>0.0295158025579717</v>
+        <v>0.01867641547519653</v>
       </c>
       <c r="D86">
-        <v>0.04392603373772063</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06547247126068859</v>
+      </c>
+      <c r="E86">
+        <v>-0.0786901986770696</v>
+      </c>
+      <c r="F86">
+        <v>-0.082662176268118</v>
+      </c>
+      <c r="G86">
+        <v>-0.07343137797342024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02698100028650241</v>
+        <v>-0.0268523855283864</v>
       </c>
       <c r="C87">
-        <v>0.00648745161352913</v>
+        <v>0.01356989203189693</v>
       </c>
       <c r="D87">
-        <v>0.08723587701674373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08781938910507137</v>
+      </c>
+      <c r="E87">
+        <v>-0.1271236800630986</v>
+      </c>
+      <c r="F87">
+        <v>-0.07823089532949545</v>
+      </c>
+      <c r="G87">
+        <v>-0.00394621419757416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1105490815496891</v>
+        <v>-0.09410332191416751</v>
       </c>
       <c r="C88">
-        <v>0.0748133620020726</v>
+        <v>0.06335107435588189</v>
       </c>
       <c r="D88">
-        <v>-0.02323793620589421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01003994588383541</v>
+      </c>
+      <c r="E88">
+        <v>-0.0516329676641416</v>
+      </c>
+      <c r="F88">
+        <v>-0.04975632494425164</v>
+      </c>
+      <c r="G88">
+        <v>-0.03564843179480506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1760951837566513</v>
+        <v>-0.2130901251974189</v>
       </c>
       <c r="C89">
-        <v>-0.3838141858624311</v>
+        <v>-0.3856424890090346</v>
       </c>
       <c r="D89">
-        <v>-0.02328366873086518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01170403716738628</v>
+      </c>
+      <c r="E89">
+        <v>-0.06969803998504402</v>
+      </c>
+      <c r="F89">
+        <v>-0.09077402686873111</v>
+      </c>
+      <c r="G89">
+        <v>0.003684395152671724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1698050799290685</v>
+        <v>-0.194012849599477</v>
       </c>
       <c r="C90">
-        <v>-0.3357556276270661</v>
+        <v>-0.312575121320776</v>
       </c>
       <c r="D90">
-        <v>-0.03725779439329138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01943424361709885</v>
+      </c>
+      <c r="E90">
+        <v>-0.05751441715398795</v>
+      </c>
+      <c r="F90">
+        <v>-0.03043274247492699</v>
+      </c>
+      <c r="G90">
+        <v>-0.01292893169227297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1901953671675606</v>
+        <v>-0.1878511003285792</v>
       </c>
       <c r="C91">
-        <v>0.1239211476119379</v>
+        <v>0.1396958534465509</v>
       </c>
       <c r="D91">
-        <v>-0.134715906235768</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.131473079434737</v>
+      </c>
+      <c r="E91">
+        <v>-0.05048024422647614</v>
+      </c>
+      <c r="F91">
+        <v>0.01651041790392717</v>
+      </c>
+      <c r="G91">
+        <v>0.003918619210818262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1587375116368391</v>
+        <v>-0.1785298969680369</v>
       </c>
       <c r="C92">
-        <v>-0.2954160173741031</v>
+        <v>-0.2978453011847083</v>
       </c>
       <c r="D92">
-        <v>-0.01573049359204537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01297518868998875</v>
+      </c>
+      <c r="E92">
+        <v>-0.06016292848813509</v>
+      </c>
+      <c r="F92">
+        <v>-0.05788765066471139</v>
+      </c>
+      <c r="G92">
+        <v>-0.02850368301391412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1890362091746154</v>
+        <v>-0.2149658715034111</v>
       </c>
       <c r="C93">
-        <v>-0.3420428719557706</v>
+        <v>-0.3228093046995408</v>
       </c>
       <c r="D93">
-        <v>-0.03834580958676975</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01791723105262543</v>
+      </c>
+      <c r="E93">
+        <v>-0.03783758365651113</v>
+      </c>
+      <c r="F93">
+        <v>-0.005828957454131971</v>
+      </c>
+      <c r="G93">
+        <v>-0.03976281792959859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3439362377565362</v>
+        <v>-0.345464369295429</v>
       </c>
       <c r="C94">
-        <v>0.1203159729005699</v>
+        <v>0.1696012768849096</v>
       </c>
       <c r="D94">
-        <v>-0.3742142566851309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4028750751833717</v>
+      </c>
+      <c r="E94">
+        <v>-0.001592775826579458</v>
+      </c>
+      <c r="F94">
+        <v>0.1299046942727314</v>
+      </c>
+      <c r="G94">
+        <v>0.3924791748128537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1242030809069358</v>
+        <v>-0.09127145042313585</v>
       </c>
       <c r="C95">
-        <v>0.0535474303195122</v>
+        <v>0.05701478784475397</v>
       </c>
       <c r="D95">
-        <v>0.2206460587613205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2046190817628893</v>
+      </c>
+      <c r="E95">
+        <v>0.1328866396076991</v>
+      </c>
+      <c r="F95">
+        <v>-0.6948175437876123</v>
+      </c>
+      <c r="G95">
+        <v>0.5821611884612556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1936548562293502</v>
+        <v>-0.1871676191374962</v>
       </c>
       <c r="C98">
-        <v>0.03010321226025646</v>
+        <v>0.04894554036778429</v>
       </c>
       <c r="D98">
-        <v>0.1631930617492126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2015946316208514</v>
+      </c>
+      <c r="E98">
+        <v>0.1437672092995889</v>
+      </c>
+      <c r="F98">
+        <v>0.08512328965069969</v>
+      </c>
+      <c r="G98">
+        <v>-0.07801235191996224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007847321958597308</v>
+        <v>-0.006775905241794349</v>
       </c>
       <c r="C101">
-        <v>0.03333630564301367</v>
+        <v>0.02834161199998441</v>
       </c>
       <c r="D101">
-        <v>-0.01342452021184804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01851543266607227</v>
+      </c>
+      <c r="E101">
+        <v>-0.05185083712786349</v>
+      </c>
+      <c r="F101">
+        <v>-0.07355538873780459</v>
+      </c>
+      <c r="G101">
+        <v>-0.08451629806461795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.122670081456972</v>
+        <v>-0.1261766719407153</v>
       </c>
       <c r="C102">
-        <v>0.06678553412223164</v>
+        <v>0.09808246668018324</v>
       </c>
       <c r="D102">
-        <v>-0.04996434086778829</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0591378966241889</v>
+      </c>
+      <c r="E102">
+        <v>0.01200108208219424</v>
+      </c>
+      <c r="F102">
+        <v>-0.01921599880418287</v>
+      </c>
+      <c r="G102">
+        <v>0.01081067553050472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
